--- a/main/postfiles/template.xlsx
+++ b/main/postfiles/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C88A8F-86B2-494E-93D4-811BE5AE5684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D48992-EEE8-46DD-844B-F253A0B9F5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>method</t>
   </si>
@@ -122,13 +122,20 @@
   <si>
     <t>GET</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://market-stage.youyu.cn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +302,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +494,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -739,7 +760,13 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,202 +1149,867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="16" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5">
+      <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="O5" s="1">
         <v>123</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{EA957F16-E531-4BFA-9E7B-CEBB5A138208}">
-      <formula1>$P$1:$Q$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{EA957F16-E531-4BFA-9E7B-CEBB5A138208}">
+      <formula1>$Q$1:$R$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/postfiles/template.xlsx
+++ b/main/postfiles/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\antoInterfacePlatform\main\postfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06665557-EB1E-4A00-8C54-F4EC6D5E3627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9380FD67-77ED-4EF0-8CE6-675D2256EAE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>从下一行开始读取导入数据，请勿修改行数，否则会导致导入出错，用例直接也不要有空行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>执行用例</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
   </si>
   <si>
     <t>t02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下一行开始读取导入数据，请勿修改行数，否则会导致导入出错，用例之间也不要有空行</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +701,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -864,65 +864,65 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>

--- a/main/postfiles/template.xlsx
+++ b/main/postfiles/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\antoInterfacePlatform\main\postfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9380FD67-77ED-4EF0-8CE6-675D2256EAE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BEBF1E-2789-4986-8BB9-496FD756F3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="345" windowWidth="25830" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>仅能为1或0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>apiName 必填</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
   </si>
   <si>
     <t>从下一行开始读取导入数据，请勿修改行数，否则会导致导入出错，用例之间也不要有空行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅能为TRUE或FALSE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +701,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,16 +721,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -856,73 +856,73 @@
         <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>

--- a/main/postfiles/template.xlsx
+++ b/main/postfiles/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\antoInterfacePlatform\main\postfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BEBF1E-2789-4986-8BB9-496FD756F3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A17BC89-13EB-4717-983B-56D9DEE4C1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2025" yWindow="345" windowWidth="25830" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>headers</t>
   </si>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>必须符合json格式，可以为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>apiName 必填</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -189,14 +185,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>["t02"]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":"uin"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"code":0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -234,6 +222,13 @@
   </si>
   <si>
     <t>仅能为TRUE或FALSE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>["stu=$.body"]</t>
+  </si>
+  <si>
+    <t>只用填写依赖用例的t_id，可以为空</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +291,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -363,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
@@ -391,6 +392,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -700,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,16 +725,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -748,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -850,79 +854,79 @@
         <v>29</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>

--- a/main/postfiles/template.xlsx
+++ b/main/postfiles/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\antoInterfacePlatform\main\postfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A17BC89-13EB-4717-983B-56D9DEE4C1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8345C94B-7C1E-46FE-8B62-168944D11B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="345" windowWidth="25830" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="690" windowWidth="25830" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>当前接口测试用例所依赖的数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>断言</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -133,10 +129,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>必须以列表的形式表示，可以为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>apiName 必填</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -225,10 +217,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>["stu=$.body"]</t>
-  </si>
-  <si>
     <t>只用填写依赖用例的t_id，可以为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=$.data.uin,b=$.code</t>
+  </si>
+  <si>
+    <t>当前接口测试用例所依赖的数据，可设置变量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>以逗号隔开，可以为空</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -247,6 +247,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -254,6 +255,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -261,6 +263,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -705,7 +708,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,16 +728,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -752,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -817,22 +820,22 @@
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -845,88 +848,88 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>

--- a/main/postfiles/template.xlsx
+++ b/main/postfiles/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\antoInterfacePlatform\main\postfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8345C94B-7C1E-46FE-8B62-168944D11B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA4D75-92DA-40FA-9E14-C2A1D251047A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="690" windowWidth="25830" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -705,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,10 +723,11 @@
     <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.375" customWidth="1"/>
     <col min="13" max="14" width="11.625" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="9" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -775,8 +776,14 @@
       <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -794,7 +801,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -838,12 +845,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -869,7 +876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
@@ -901,7 +908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -927,7 +934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -940,12 +947,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -956,12 +971,12 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -972,12 +987,12 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -988,12 +1003,12 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1004,12 +1019,12 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1020,12 +1035,12 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1036,10 +1051,10 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1052,10 +1067,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -1068,10 +1083,10 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1084,10 +1099,10 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -1100,10 +1115,10 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -1116,10 +1131,10 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -1132,10 +1147,10 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -1148,10 +1163,10 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -1164,10 +1179,10 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -1180,10 +1195,10 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -1196,10 +1211,10 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -1212,10 +1227,10 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -1228,10 +1243,10 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -1244,10 +1259,10 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -1260,10 +1275,10 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
@@ -1276,10 +1291,10 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -1292,10 +1307,10 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -1308,10 +1323,10 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -1324,10 +1339,10 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -1340,10 +1355,10 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -1356,10 +1371,10 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -1372,10 +1387,10 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
@@ -1388,10 +1403,10 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -1404,16 +1419,44 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B8 B11:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$O$1:$P$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K43 N6:N46" xr:uid="{7BBB6B6F-EDBB-41AC-A3E7-42526B5C339B}">
+      <formula1>Q1:R1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/main/postfiles/template.xlsx
+++ b/main/postfiles/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\antoInterfacePlatform\main\postfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA4D75-92DA-40FA-9E14-C2A1D251047A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23162E0-E313-43B8-A922-5D4520920306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>headers</t>
   </si>
@@ -161,18 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/pc/v1/quote/user/query/marketinfobatch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"loginid":90976,"auth":"731416e1214b615a77f480f053f6737398e7889be17a7f77e8aad91b1b68e66b6d65993b42902a7445dc97d68a29e4882e1d3eb9c5c17e54e7b8d30a54ae5b02c308292c579eb09920ba990632ea6f0dd308c748bbb7851ba2aa9470c728f01d"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>t01</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -185,26 +173,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uc-qa.youyu.cn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/users/check</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "Content-Type": "application/json" }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "aver": 1, "type": "mobile", "value": "+8610111112245" }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>t02</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -221,22 +189,33 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a=$.data.uin,b=$.code</t>
-  </si>
-  <si>
     <t>当前接口测试用例所依赖的数据，可设置变量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>以逗号隔开，可以为空</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pc/v3/quote/user/query/pcrank?mkt=hk_real&amp;n=00&amp;rt=7&amp;rev=1&amp;num=100&amp;sector=gem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pc-market-qa.youyu.cn</t>
+  </si>
+  <si>
+    <t>/common/v1/quote/user/query/quote?key=${stockcode}&amp;cf=${cf}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockcode=$data.data[0].0,cf=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +279,13 @@
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -367,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
@@ -398,6 +384,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -705,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,12 +708,12 @@
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
     <col min="6" max="6" width="39.75" customWidth="1"/>
-    <col min="7" max="9" width="17.75" customWidth="1"/>
+    <col min="7" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.375" customWidth="1"/>
     <col min="13" max="14" width="11.625" customWidth="1"/>
-    <col min="15" max="16" width="9" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -827,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
@@ -864,19 +853,19 @@
         <v>28</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
@@ -887,56 +876,45 @@
         <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -947,17 +925,41 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="7"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="7"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1393,35 +1395,11 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -1433,38 +1411,29 @@
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K42" s="7"/>
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K43" s="7"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N46" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$O$1:$P$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K43 N6:N46" xr:uid="{7BBB6B6F-EDBB-41AC-A3E7-42526B5C339B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K39:K41 K6 N41:N44" xr:uid="{7BBB6B6F-EDBB-41AC-A3E7-42526B5C339B}">
       <formula1>Q1:R1</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N40 K9:K38 N6:N7" xr:uid="{EB3DC501-0BCB-4AE6-9E2C-55A65934FD84}">
+      <formula1>$Q$1:$R$1</formula1>
+    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{1847EF1B-B050-4740-AE27-271D82B25FFC}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{8A4E7856-3836-44ED-B5B9-71373DB126F6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
